--- a/artfynd/A 49876-2021.xlsx
+++ b/artfynd/A 49876-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96419312</v>
+        <v>112044176</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1543,25 +1543,19 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554835.1378945954</v>
+        <v>554725.1969658234</v>
       </c>
       <c r="R9" t="n">
-        <v>6697664.484542046</v>
+        <v>6697570.923917417</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1585,22 +1579,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:37</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:37</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1627,10 +1621,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96419895</v>
+        <v>112044172</v>
       </c>
       <c r="B10" t="n">
-        <v>96334</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1639,47 +1633,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554940.8909932693</v>
+        <v>554721.7291097966</v>
       </c>
       <c r="R10" t="n">
-        <v>6697576.653483484</v>
+        <v>6697603.976012163</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1703,27 +1691,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:46</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>100-tals bladrosetter</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1750,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96418764</v>
+        <v>112044178</v>
       </c>
       <c r="B11" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1783,31 +1766,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554770.6295404269</v>
+        <v>554737.3165861247</v>
       </c>
       <c r="R11" t="n">
-        <v>6697675.86245322</v>
+        <v>6697620.516129929</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1831,22 +1803,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1873,10 +1845,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96420262</v>
+        <v>112044164</v>
       </c>
       <c r="B12" t="n">
-        <v>96334</v>
+        <v>88924</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1885,52 +1857,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>256703</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554891.9402091813</v>
+        <v>554724.8915453397</v>
       </c>
       <c r="R12" t="n">
-        <v>6697508.220708729</v>
+        <v>6697591.177257041</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1954,22 +1915,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>17:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>17:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1978,28 +1939,29 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96419840</v>
+        <v>96419312</v>
       </c>
       <c r="B13" t="n">
-        <v>90008</v>
+        <v>96334</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2008,39 +1970,44 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6031</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554948.9509810555</v>
+        <v>554835.1378945954</v>
       </c>
       <c r="R13" t="n">
-        <v>6697599.998042461</v>
+        <v>6697664.484542046</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2072,7 +2039,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:37</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2082,7 +2049,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:37</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2109,10 +2076,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96419223</v>
+        <v>96419895</v>
       </c>
       <c r="B14" t="n">
-        <v>88806</v>
+        <v>96334</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2121,41 +2088,44 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5685</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554814.0482089642</v>
+        <v>554940.8909932693</v>
       </c>
       <c r="R14" t="n">
-        <v>6697750.135762957</v>
+        <v>6697576.653483484</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2187,7 +2157,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2197,7 +2167,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>17:46</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>100-tals bladrosetter</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2206,7 +2181,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2225,7 +2199,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96419993</v>
+        <v>96418764</v>
       </c>
       <c r="B15" t="n">
         <v>96334</v>
@@ -2258,7 +2232,16 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
@@ -2267,10 +2250,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554930.3494243063</v>
+        <v>554770.6295404269</v>
       </c>
       <c r="R15" t="n">
-        <v>6697553.765334281</v>
+        <v>6697675.86245322</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2302,7 +2285,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2312,7 +2295,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2339,7 +2322,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>97311602</v>
+        <v>96420262</v>
       </c>
       <c r="B16" t="n">
         <v>96334</v>
@@ -2374,7 +2357,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2390,10 +2373,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554764.4396769849</v>
+        <v>554891.9402091813</v>
       </c>
       <c r="R16" t="n">
-        <v>6697528.529155129</v>
+        <v>6697508.220708729</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2420,22 +2403,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-11-26</t>
+          <t>2021-10-02</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>17:56</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-11-26</t>
+          <t>2021-10-02</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>17:56</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2462,10 +2445,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>97330204</v>
+        <v>96419840</v>
       </c>
       <c r="B17" t="n">
-        <v>5113</v>
+        <v>90008</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2478,41 +2461,35 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100526</v>
+        <v>6031</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554766.6347778281</v>
+        <v>554948.9509810555</v>
       </c>
       <c r="R17" t="n">
-        <v>6697776.59381716</v>
+        <v>6697599.998042461</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2539,22 +2516,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-11-28</t>
+          <t>2021-10-02</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-11-28</t>
+          <t>2021-10-02</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2581,10 +2558,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>97330153</v>
+        <v>96419223</v>
       </c>
       <c r="B18" t="n">
-        <v>89392</v>
+        <v>88806</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2593,39 +2570,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>5685</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554788.6181491652</v>
+        <v>554814.0482089642</v>
       </c>
       <c r="R18" t="n">
-        <v>6697631.666202906</v>
+        <v>6697750.135762957</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2652,22 +2631,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-11-28</t>
+          <t>2021-10-02</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-11-28</t>
+          <t>2021-10-02</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2676,6 +2655,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2691,6 +2671,1371 @@
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>96419993</v>
+      </c>
+      <c r="B19" t="n">
+        <v>96334</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Hedemora, Dlr</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>554930.3494243063</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6697553.765334281</v>
+      </c>
+      <c r="S19" t="n">
+        <v>25</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2021-10-02</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>17:48</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2021-10-02</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>17:48</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>97311602</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96334</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Hedemora, Dlr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>554764.4396769849</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6697528.529155129</v>
+      </c>
+      <c r="S20" t="n">
+        <v>25</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2021-11-26</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>12:27</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2021-11-26</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>12:27</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FREDRIK  Månsson </t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FREDRIK  Månsson </t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>97330204</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Hedemora, Dlr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>554766.6347778281</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6697776.59381716</v>
+      </c>
+      <c r="S21" t="n">
+        <v>25</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2021-11-28</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2021-11-28</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>97330153</v>
+      </c>
+      <c r="B22" t="n">
+        <v>89392</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Hedemora, Dlr</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>554788.6181491652</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6697631.666202906</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2021-11-28</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2021-11-28</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112044157</v>
+      </c>
+      <c r="B23" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>554763.6075584656</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6697616.465966055</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112044156</v>
+      </c>
+      <c r="B24" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>554761.6582123891</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6697614.460182385</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112044180</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>554838.8808180906</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6697580.545608173</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112044179</v>
+      </c>
+      <c r="B26" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>554794.5978541592</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6697596.181857388</v>
+      </c>
+      <c r="S26" t="n">
+        <v>15</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112044168</v>
+      </c>
+      <c r="B27" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>554760.6686302377</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6697614.44524945</v>
+      </c>
+      <c r="S27" t="n">
+        <v>15</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112044169</v>
+      </c>
+      <c r="B28" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>554764.5822306949</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6697617.468857886</v>
+      </c>
+      <c r="S28" t="n">
+        <v>15</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112044154</v>
+      </c>
+      <c r="B29" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>554768.2498027334</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6697636.793724483</v>
+      </c>
+      <c r="S29" t="n">
+        <v>15</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112044155</v>
+      </c>
+      <c r="B30" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Kyrkberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>554761.4420383665</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6697628.785556345</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 49876-2021.xlsx
+++ b/artfynd/A 49876-2021.xlsx
@@ -1509,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112044176</v>
+        <v>112044172</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>90658</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,25 +1521,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554725.1969658234</v>
+        <v>554721.7291097966</v>
       </c>
       <c r="R9" t="n">
-        <v>6697570.923917417</v>
+        <v>6697603.976012163</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1621,10 +1621,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044172</v>
+        <v>112044178</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,25 +1633,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1661,10 +1661,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554721.7291097966</v>
+        <v>554737.3165861247</v>
       </c>
       <c r="R10" t="n">
-        <v>6697603.976012163</v>
+        <v>6697620.516129929</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112044178</v>
+        <v>112044164</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>88924</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,25 +1745,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>256703</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554737.3165861247</v>
+        <v>554724.8915453397</v>
       </c>
       <c r="R11" t="n">
-        <v>6697620.516129929</v>
+        <v>6697591.177257041</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1827,6 +1827,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1845,10 +1846,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044164</v>
+        <v>112044176</v>
       </c>
       <c r="B12" t="n">
-        <v>88924</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,25 +1858,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>256703</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1885,10 +1886,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554724.8915453397</v>
+        <v>554725.1969658234</v>
       </c>
       <c r="R12" t="n">
-        <v>6697591.177257041</v>
+        <v>6697570.923917417</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1939,7 +1940,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112044157</v>
+        <v>112044155</v>
       </c>
       <c r="B23" t="n">
         <v>89405</v>
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554763.6075584656</v>
+        <v>554761.4420383665</v>
       </c>
       <c r="R23" t="n">
-        <v>6697616.465966055</v>
+        <v>6697628.785556345</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044179</v>
+        <v>112044168</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3495,21 +3495,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3519,10 +3519,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554794.5978541592</v>
+        <v>554760.6686302377</v>
       </c>
       <c r="R26" t="n">
-        <v>6697596.181857388</v>
+        <v>6697614.44524945</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044168</v>
+        <v>112044179</v>
       </c>
       <c r="B27" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3607,21 +3607,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3631,10 +3631,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554760.6686302377</v>
+        <v>554794.5978541592</v>
       </c>
       <c r="R27" t="n">
-        <v>6697614.44524945</v>
+        <v>6697596.181857388</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112044154</v>
+        <v>112044157</v>
       </c>
       <c r="B29" t="n">
         <v>89405</v>
@@ -3855,10 +3855,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554768.2498027334</v>
+        <v>554763.6075584656</v>
       </c>
       <c r="R29" t="n">
-        <v>6697636.793724483</v>
+        <v>6697616.465966055</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112044155</v>
+        <v>112044154</v>
       </c>
       <c r="B30" t="n">
         <v>89405</v>
@@ -3967,10 +3967,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554761.4420383665</v>
+        <v>554768.2498027334</v>
       </c>
       <c r="R30" t="n">
-        <v>6697628.785556345</v>
+        <v>6697636.793724483</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>

--- a/artfynd/A 49876-2021.xlsx
+++ b/artfynd/A 49876-2021.xlsx
@@ -1509,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112044172</v>
+        <v>112044164</v>
       </c>
       <c r="B9" t="n">
-        <v>90658</v>
+        <v>88924</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,25 +1521,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>256703</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554721.7291097966</v>
+        <v>554724.8915453397</v>
       </c>
       <c r="R9" t="n">
-        <v>6697603.976012163</v>
+        <v>6697591.177257041</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1603,6 +1603,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1621,7 +1622,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044178</v>
+        <v>112044176</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1661,10 +1662,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554737.3165861247</v>
+        <v>554725.1969658234</v>
       </c>
       <c r="R10" t="n">
-        <v>6697620.516129929</v>
+        <v>6697570.923917417</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1733,10 +1734,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112044164</v>
+        <v>112044178</v>
       </c>
       <c r="B11" t="n">
-        <v>88924</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,25 +1746,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>256703</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1773,10 +1774,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554724.8915453397</v>
+        <v>554737.3165861247</v>
       </c>
       <c r="R11" t="n">
-        <v>6697591.177257041</v>
+        <v>6697620.516129929</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1827,7 +1828,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1846,10 +1846,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044176</v>
+        <v>112044172</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>90658</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1858,25 +1858,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1886,10 +1886,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554725.1969658234</v>
+        <v>554721.7291097966</v>
       </c>
       <c r="R12" t="n">
-        <v>6697570.923917417</v>
+        <v>6697603.976012163</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -3143,10 +3143,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112044155</v>
+        <v>112044180</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554761.4420383665</v>
+        <v>554838.8808180906</v>
       </c>
       <c r="R23" t="n">
-        <v>6697628.785556345</v>
+        <v>6697580.545608173</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044156</v>
+        <v>112044179</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3267,25 +3267,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554761.6582123891</v>
+        <v>554794.5978541592</v>
       </c>
       <c r="R24" t="n">
-        <v>6697614.460182385</v>
+        <v>6697596.181857388</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112044180</v>
+        <v>112044168</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3383,21 +3383,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554838.8808180906</v>
+        <v>554760.6686302377</v>
       </c>
       <c r="R25" t="n">
-        <v>6697580.545608173</v>
+        <v>6697614.44524945</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044168</v>
+        <v>112044156</v>
       </c>
       <c r="B26" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3491,25 +3491,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3519,10 +3519,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554760.6686302377</v>
+        <v>554761.6582123891</v>
       </c>
       <c r="R26" t="n">
-        <v>6697614.44524945</v>
+        <v>6697614.460182385</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044179</v>
+        <v>112044169</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3607,21 +3607,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3631,10 +3631,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554794.5978541592</v>
+        <v>554764.5822306949</v>
       </c>
       <c r="R27" t="n">
-        <v>6697596.181857388</v>
+        <v>6697617.468857886</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112044169</v>
+        <v>112044155</v>
       </c>
       <c r="B28" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3743,10 +3743,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554764.5822306949</v>
+        <v>554761.4420383665</v>
       </c>
       <c r="R28" t="n">
-        <v>6697617.468857886</v>
+        <v>6697628.785556345</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112044157</v>
+        <v>112044154</v>
       </c>
       <c r="B29" t="n">
         <v>89405</v>
@@ -3855,10 +3855,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554763.6075584656</v>
+        <v>554768.2498027334</v>
       </c>
       <c r="R29" t="n">
-        <v>6697616.465966055</v>
+        <v>6697636.793724483</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112044154</v>
+        <v>112044157</v>
       </c>
       <c r="B30" t="n">
         <v>89405</v>
@@ -3967,10 +3967,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554768.2498027334</v>
+        <v>554763.6075584656</v>
       </c>
       <c r="R30" t="n">
-        <v>6697636.793724483</v>
+        <v>6697616.465966055</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>

--- a/artfynd/A 49876-2021.xlsx
+++ b/artfynd/A 49876-2021.xlsx
@@ -1509,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112044164</v>
+        <v>112044178</v>
       </c>
       <c r="B9" t="n">
-        <v>88924</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,25 +1521,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>256703</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554724.8915453397</v>
+        <v>554737.3165861247</v>
       </c>
       <c r="R9" t="n">
-        <v>6697591.177257041</v>
+        <v>6697620.516129929</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1603,7 +1603,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1622,10 +1621,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044176</v>
+        <v>112044172</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1634,25 +1633,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1662,10 +1661,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554725.1969658234</v>
+        <v>554721.7291097966</v>
       </c>
       <c r="R10" t="n">
-        <v>6697570.923917417</v>
+        <v>6697603.976012163</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1734,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112044178</v>
+        <v>112044164</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>88924</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1746,25 +1745,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>256703</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1774,10 +1773,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554737.3165861247</v>
+        <v>554724.8915453397</v>
       </c>
       <c r="R11" t="n">
-        <v>6697620.516129929</v>
+        <v>6697591.177257041</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1828,6 +1827,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1846,10 +1846,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044172</v>
+        <v>112044176</v>
       </c>
       <c r="B12" t="n">
-        <v>90658</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1858,25 +1858,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1886,10 +1886,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554721.7291097966</v>
+        <v>554725.1969658234</v>
       </c>
       <c r="R12" t="n">
-        <v>6697603.976012163</v>
+        <v>6697570.923917417</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -3143,10 +3143,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112044180</v>
+        <v>112044169</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3159,21 +3159,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554838.8808180906</v>
+        <v>554764.5822306949</v>
       </c>
       <c r="R23" t="n">
-        <v>6697580.545608173</v>
+        <v>6697617.468857886</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044179</v>
+        <v>112044155</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3267,25 +3267,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554794.5978541592</v>
+        <v>554761.4420383665</v>
       </c>
       <c r="R24" t="n">
-        <v>6697596.181857388</v>
+        <v>6697628.785556345</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112044168</v>
+        <v>112044157</v>
       </c>
       <c r="B25" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3379,25 +3379,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554760.6686302377</v>
+        <v>554763.6075584656</v>
       </c>
       <c r="R25" t="n">
-        <v>6697614.44524945</v>
+        <v>6697616.465966055</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044156</v>
+        <v>112044179</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3491,25 +3491,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3519,10 +3519,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554761.6582123891</v>
+        <v>554794.5978541592</v>
       </c>
       <c r="R26" t="n">
-        <v>6697614.460182385</v>
+        <v>6697596.181857388</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044169</v>
+        <v>112044180</v>
       </c>
       <c r="B27" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3607,21 +3607,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3631,10 +3631,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554764.5822306949</v>
+        <v>554838.8808180906</v>
       </c>
       <c r="R27" t="n">
-        <v>6697617.468857886</v>
+        <v>6697580.545608173</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112044155</v>
+        <v>112044154</v>
       </c>
       <c r="B28" t="n">
         <v>89405</v>
@@ -3743,10 +3743,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554761.4420383665</v>
+        <v>554768.2498027334</v>
       </c>
       <c r="R28" t="n">
-        <v>6697628.785556345</v>
+        <v>6697636.793724483</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3815,10 +3815,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112044154</v>
+        <v>112044168</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3827,25 +3827,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3855,10 +3855,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554768.2498027334</v>
+        <v>554760.6686302377</v>
       </c>
       <c r="R29" t="n">
-        <v>6697636.793724483</v>
+        <v>6697614.44524945</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112044157</v>
+        <v>112044156</v>
       </c>
       <c r="B30" t="n">
         <v>89405</v>
@@ -3967,10 +3967,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554763.6075584656</v>
+        <v>554761.6582123891</v>
       </c>
       <c r="R30" t="n">
-        <v>6697616.465966055</v>
+        <v>6697614.460182385</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>

--- a/artfynd/A 49876-2021.xlsx
+++ b/artfynd/A 49876-2021.xlsx
@@ -1509,7 +1509,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112044178</v>
+        <v>112044176</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554737.3165861247</v>
+        <v>554725</v>
       </c>
       <c r="R9" t="n">
-        <v>6697620.516129929</v>
+        <v>6697571</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1582,19 +1582,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1661,10 +1651,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554721.7291097966</v>
+        <v>554722</v>
       </c>
       <c r="R10" t="n">
-        <v>6697603.976012163</v>
+        <v>6697604</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1694,19 +1684,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1733,10 +1713,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112044164</v>
+        <v>112044178</v>
       </c>
       <c r="B11" t="n">
-        <v>88924</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,25 +1725,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>256703</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1773,10 +1753,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554724.8915453397</v>
+        <v>554737</v>
       </c>
       <c r="R11" t="n">
-        <v>6697591.177257041</v>
+        <v>6697621</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1806,28 +1786,17 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1846,10 +1815,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044176</v>
+        <v>112044164</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>88924</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1858,25 +1827,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>256703</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1886,10 +1855,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554725.1969658234</v>
+        <v>554725</v>
       </c>
       <c r="R12" t="n">
-        <v>6697570.923917417</v>
+        <v>6697591</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1919,27 +1888,18 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -3143,10 +3103,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112044169</v>
+        <v>112044157</v>
       </c>
       <c r="B23" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3155,25 +3115,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3183,10 +3143,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554764.5822306949</v>
+        <v>554764</v>
       </c>
       <c r="R23" t="n">
-        <v>6697617.468857886</v>
+        <v>6697616</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3216,19 +3176,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3255,10 +3205,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044155</v>
+        <v>112044169</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3267,25 +3217,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3295,10 +3245,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554761.4420383665</v>
+        <v>554765</v>
       </c>
       <c r="R24" t="n">
-        <v>6697628.785556345</v>
+        <v>6697617</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3328,19 +3278,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3367,10 +3307,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112044157</v>
+        <v>112044179</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3379,25 +3319,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3407,10 +3347,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554763.6075584656</v>
+        <v>554795</v>
       </c>
       <c r="R25" t="n">
-        <v>6697616.465966055</v>
+        <v>6697596</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3440,19 +3380,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3479,10 +3409,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044179</v>
+        <v>112044168</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3495,21 +3425,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3519,10 +3449,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554794.5978541592</v>
+        <v>554761</v>
       </c>
       <c r="R26" t="n">
-        <v>6697596.181857388</v>
+        <v>6697614</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3552,19 +3482,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3631,10 +3551,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554838.8808180906</v>
+        <v>554839</v>
       </c>
       <c r="R27" t="n">
-        <v>6697580.545608173</v>
+        <v>6697581</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3664,19 +3584,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3703,7 +3613,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112044154</v>
+        <v>112044155</v>
       </c>
       <c r="B28" t="n">
         <v>89405</v>
@@ -3743,10 +3653,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554768.2498027334</v>
+        <v>554761</v>
       </c>
       <c r="R28" t="n">
-        <v>6697636.793724483</v>
+        <v>6697629</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3776,19 +3686,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3815,10 +3715,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112044168</v>
+        <v>112044156</v>
       </c>
       <c r="B29" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3827,25 +3727,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3855,10 +3755,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554760.6686302377</v>
+        <v>554762</v>
       </c>
       <c r="R29" t="n">
-        <v>6697614.44524945</v>
+        <v>6697614</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3888,19 +3788,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3927,7 +3817,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112044156</v>
+        <v>112044154</v>
       </c>
       <c r="B30" t="n">
         <v>89405</v>
@@ -3967,10 +3857,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554761.6582123891</v>
+        <v>554768</v>
       </c>
       <c r="R30" t="n">
-        <v>6697614.460182385</v>
+        <v>6697637</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4000,19 +3890,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 49876-2021.xlsx
+++ b/artfynd/A 49876-2021.xlsx
@@ -1512,7 +1512,7 @@
         <v>112044176</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044172</v>
+        <v>112044164</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>89058</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1623,25 +1623,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>256703</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554722</v>
+        <v>554725</v>
       </c>
       <c r="R10" t="n">
-        <v>6697604</v>
+        <v>6697591</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1695,6 +1695,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>112044178</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1815,10 +1816,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044164</v>
+        <v>112044172</v>
       </c>
       <c r="B12" t="n">
-        <v>88924</v>
+        <v>90792</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1827,25 +1828,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>256703</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1855,10 +1856,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554725</v>
+        <v>554722</v>
       </c>
       <c r="R12" t="n">
-        <v>6697591</v>
+        <v>6697604</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1899,7 +1900,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112044157</v>
+        <v>112044179</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>96720</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3115,25 +3115,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554764</v>
+        <v>554795</v>
       </c>
       <c r="R23" t="n">
-        <v>6697616</v>
+        <v>6697596</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044169</v>
+        <v>112044168</v>
       </c>
       <c r="B24" t="n">
-        <v>89845</v>
+        <v>89979</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3245,10 +3245,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554765</v>
+        <v>554761</v>
       </c>
       <c r="R24" t="n">
-        <v>6697617</v>
+        <v>6697614</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3307,10 +3307,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112044179</v>
+        <v>112044155</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>89539</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3319,25 +3319,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3347,10 +3347,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554795</v>
+        <v>554761</v>
       </c>
       <c r="R25" t="n">
-        <v>6697596</v>
+        <v>6697629</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3409,10 +3409,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044168</v>
+        <v>112044169</v>
       </c>
       <c r="B26" t="n">
-        <v>89845</v>
+        <v>89979</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554761</v>
+        <v>554765</v>
       </c>
       <c r="R26" t="n">
-        <v>6697614</v>
+        <v>6697617</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044180</v>
+        <v>112044157</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>89539</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3523,25 +3523,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3551,10 +3551,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554839</v>
+        <v>554764</v>
       </c>
       <c r="R27" t="n">
-        <v>6697581</v>
+        <v>6697616</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3613,10 +3613,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112044155</v>
+        <v>112044180</v>
       </c>
       <c r="B28" t="n">
-        <v>89405</v>
+        <v>96720</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3625,25 +3625,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3653,10 +3653,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554761</v>
+        <v>554839</v>
       </c>
       <c r="R28" t="n">
-        <v>6697629</v>
+        <v>6697581</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3718,7 +3718,7 @@
         <v>112044156</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>112044154</v>
       </c>
       <c r="B30" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>

--- a/artfynd/A 49876-2021.xlsx
+++ b/artfynd/A 49876-2021.xlsx
@@ -1509,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112044176</v>
+        <v>112044178</v>
       </c>
       <c r="B9" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554725</v>
+        <v>554737</v>
       </c>
       <c r="R9" t="n">
-        <v>6697571</v>
+        <v>6697621</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044164</v>
+        <v>112044172</v>
       </c>
       <c r="B10" t="n">
-        <v>89058</v>
+        <v>90806</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1623,25 +1623,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>256703</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554725</v>
+        <v>554722</v>
       </c>
       <c r="R10" t="n">
-        <v>6697591</v>
+        <v>6697604</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1695,7 +1695,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1714,10 +1713,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112044178</v>
+        <v>112044176</v>
       </c>
       <c r="B11" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1754,10 +1753,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554737</v>
+        <v>554725</v>
       </c>
       <c r="R11" t="n">
-        <v>6697621</v>
+        <v>6697571</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1816,10 +1815,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044172</v>
+        <v>112044164</v>
       </c>
       <c r="B12" t="n">
-        <v>90792</v>
+        <v>89072</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1828,25 +1827,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>256703</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1856,10 +1855,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554722</v>
+        <v>554725</v>
       </c>
       <c r="R12" t="n">
-        <v>6697604</v>
+        <v>6697591</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1900,6 +1899,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112044179</v>
+        <v>112044169</v>
       </c>
       <c r="B23" t="n">
-        <v>96720</v>
+        <v>89993</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3119,21 +3119,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554795</v>
+        <v>554765</v>
       </c>
       <c r="R23" t="n">
-        <v>6697596</v>
+        <v>6697617</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044168</v>
+        <v>112044155</v>
       </c>
       <c r="B24" t="n">
-        <v>89979</v>
+        <v>89553</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3217,25 +3217,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
         <v>554761</v>
       </c>
       <c r="R24" t="n">
-        <v>6697614</v>
+        <v>6697629</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3307,10 +3307,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112044155</v>
+        <v>112044154</v>
       </c>
       <c r="B25" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554761</v>
+        <v>554768</v>
       </c>
       <c r="R25" t="n">
-        <v>6697629</v>
+        <v>6697637</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3409,10 +3409,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044169</v>
+        <v>112044157</v>
       </c>
       <c r="B26" t="n">
-        <v>89979</v>
+        <v>89553</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3421,25 +3421,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554765</v>
+        <v>554764</v>
       </c>
       <c r="R26" t="n">
-        <v>6697617</v>
+        <v>6697616</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044157</v>
+        <v>112044156</v>
       </c>
       <c r="B27" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3551,10 +3551,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554764</v>
+        <v>554762</v>
       </c>
       <c r="R27" t="n">
-        <v>6697616</v>
+        <v>6697614</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3616,7 +3616,7 @@
         <v>112044180</v>
       </c>
       <c r="B28" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3715,10 +3715,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112044156</v>
+        <v>112044168</v>
       </c>
       <c r="B29" t="n">
-        <v>89539</v>
+        <v>89993</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3727,25 +3727,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554762</v>
+        <v>554761</v>
       </c>
       <c r="R29" t="n">
         <v>6697614</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112044154</v>
+        <v>112044179</v>
       </c>
       <c r="B30" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3829,25 +3829,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3857,10 +3857,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554768</v>
+        <v>554795</v>
       </c>
       <c r="R30" t="n">
-        <v>6697637</v>
+        <v>6697596</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>

--- a/artfynd/A 49876-2021.xlsx
+++ b/artfynd/A 49876-2021.xlsx
@@ -1509,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112044178</v>
+        <v>112044164</v>
       </c>
       <c r="B9" t="n">
-        <v>96735</v>
+        <v>89072</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,25 +1521,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>256703</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554737</v>
+        <v>554725</v>
       </c>
       <c r="R9" t="n">
-        <v>6697621</v>
+        <v>6697591</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1593,6 +1593,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1611,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112044172</v>
+        <v>112044176</v>
       </c>
       <c r="B10" t="n">
-        <v>90806</v>
+        <v>96735</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1623,25 +1624,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1651,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554722</v>
+        <v>554725</v>
       </c>
       <c r="R10" t="n">
-        <v>6697604</v>
+        <v>6697571</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1713,10 +1714,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112044176</v>
+        <v>112044172</v>
       </c>
       <c r="B11" t="n">
-        <v>96735</v>
+        <v>90806</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1725,25 +1726,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1753,10 +1754,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554725</v>
+        <v>554722</v>
       </c>
       <c r="R11" t="n">
-        <v>6697571</v>
+        <v>6697604</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1815,10 +1816,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112044164</v>
+        <v>112044178</v>
       </c>
       <c r="B12" t="n">
-        <v>89072</v>
+        <v>96735</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1827,25 +1828,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>256703</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1855,10 +1856,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554725</v>
+        <v>554737</v>
       </c>
       <c r="R12" t="n">
-        <v>6697591</v>
+        <v>6697621</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1899,7 +1900,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112044169</v>
+        <v>112044156</v>
       </c>
       <c r="B23" t="n">
-        <v>89993</v>
+        <v>89553</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3115,25 +3115,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554765</v>
+        <v>554762</v>
       </c>
       <c r="R23" t="n">
-        <v>6697617</v>
+        <v>6697614</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112044155</v>
+        <v>112044168</v>
       </c>
       <c r="B24" t="n">
-        <v>89553</v>
+        <v>89993</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3217,25 +3217,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
         <v>554761</v>
       </c>
       <c r="R24" t="n">
-        <v>6697629</v>
+        <v>6697614</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3409,10 +3409,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112044157</v>
+        <v>112044169</v>
       </c>
       <c r="B26" t="n">
-        <v>89553</v>
+        <v>89993</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3421,25 +3421,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554764</v>
+        <v>554765</v>
       </c>
       <c r="R26" t="n">
-        <v>6697616</v>
+        <v>6697617</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112044156</v>
+        <v>112044155</v>
       </c>
       <c r="B27" t="n">
         <v>89553</v>
@@ -3551,10 +3551,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554762</v>
+        <v>554761</v>
       </c>
       <c r="R27" t="n">
-        <v>6697614</v>
+        <v>6697629</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3613,10 +3613,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112044180</v>
+        <v>112044157</v>
       </c>
       <c r="B28" t="n">
-        <v>96735</v>
+        <v>89553</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3625,25 +3625,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3653,10 +3653,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554839</v>
+        <v>554764</v>
       </c>
       <c r="R28" t="n">
-        <v>6697581</v>
+        <v>6697616</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3715,10 +3715,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112044168</v>
+        <v>112044179</v>
       </c>
       <c r="B29" t="n">
-        <v>89993</v>
+        <v>96735</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3731,21 +3731,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3755,10 +3755,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554761</v>
+        <v>554795</v>
       </c>
       <c r="R29" t="n">
-        <v>6697614</v>
+        <v>6697596</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112044179</v>
+        <v>112044180</v>
       </c>
       <c r="B30" t="n">
         <v>96735</v>
@@ -3857,10 +3857,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554795</v>
+        <v>554839</v>
       </c>
       <c r="R30" t="n">
-        <v>6697596</v>
+        <v>6697581</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
